--- a/docs/09_survey/stress/pilot_survey/responses.xlsx
+++ b/docs/09_survey/stress/pilot_survey/responses.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Farheen\OBE-TRACKING-SYSTEM\docs\09_survey\stress\pilot_survey\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C92943-DB20-46B1-8297-7ACDEFADB135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,290 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="92">
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>College Name</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>1. Are assignments too much?</t>
+  </si>
+  <si>
+    <t>2. Are exams scary?</t>
+  </si>
+  <si>
+    <t>3. Are many assignments on the same day?</t>
+  </si>
+  <si>
+    <t>4. Is class boring?</t>
+  </si>
+  <si>
+    <t>5. Do marks worry me?</t>
+  </si>
+  <si>
+    <t>6. I face difficulty in understanding these subjects</t>
+  </si>
+  <si>
+    <t>7. Am I sad?</t>
+  </si>
+  <si>
+    <t>8. Am I scared of job?</t>
+  </si>
+  <si>
+    <t>9. Do I delay homework?</t>
+  </si>
+  <si>
+    <t>10. Am I tired?</t>
+  </si>
+  <si>
+    <t>11. Do I sleep less?</t>
+  </si>
+  <si>
+    <t>12. Do I eat junk food?</t>
+  </si>
+  <si>
+    <t>13. Do I skip college?</t>
+  </si>
+  <si>
+    <t>14. Do I avoid group study?</t>
+  </si>
+  <si>
+    <t>15. Do I watch reels too much?</t>
+  </si>
+  <si>
+    <t>What language should the survey be in?</t>
+  </si>
+  <si>
+    <t>Were the questions easy to understand?</t>
+  </si>
+  <si>
+    <t>Did you find any question confusing?</t>
+  </si>
+  <si>
+    <t>Any suggestions to improve this survey?</t>
+  </si>
+  <si>
+    <t>Gayatri Ramdas Deore</t>
+  </si>
+  <si>
+    <t>TY</t>
+  </si>
+  <si>
+    <t>Sandip foundation</t>
+  </si>
+  <si>
+    <t>CO (Computer Engineering)</t>
+  </si>
+  <si>
+    <t>😟 – Sometimes</t>
+  </si>
+  <si>
+    <t>😰 – Often</t>
+  </si>
+  <si>
+    <t>😐 – Rarely</t>
+  </si>
+  <si>
+    <t>😭 – Always</t>
+  </si>
+  <si>
+    <t>Software Engineering (STE - CO5K)</t>
+  </si>
+  <si>
+    <t>😊 – Never</t>
+  </si>
+  <si>
+    <t>Survey should be in English</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Noo</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Saloni Prabhakar Hande</t>
+  </si>
+  <si>
+    <t>Software Engineering (STE - CO5K), Data Analytics (DAN - CO5K, IF5K)</t>
+  </si>
+  <si>
+    <t>Farheen Shaikh</t>
+  </si>
+  <si>
+    <t>Sandip Polytechnic</t>
+  </si>
+  <si>
+    <t>Khushi</t>
+  </si>
+  <si>
+    <t>Sandip polytechnic</t>
+  </si>
+  <si>
+    <t>We can give 1 or 2 textual question to get more clear idea</t>
+  </si>
+  <si>
+    <t>Rakhi Deore K</t>
+  </si>
+  <si>
+    <t>K.K.Wagh Polytechnic, Nashik</t>
+  </si>
+  <si>
+    <t>None of the above</t>
+  </si>
+  <si>
+    <t>Pooja Reshma pawar</t>
+  </si>
+  <si>
+    <t>Operating System (OSY - CO5K, IF5K), Software Engineering and Testing (SET - IF5K), A.C. Machines Performance (ACM - EE5K), Switchgear and Protection (SGP - EE5K), Thoery of Structure (TOS - CE5K), Water Resource Engineering (WRE - CE5K), Power Engineering (PER - ME5K), Automobile Engineering (AEN - ME5K)</t>
+  </si>
+  <si>
+    <t>Sakshi balasaheb hande</t>
+  </si>
+  <si>
+    <t>K.K.wagh polytechnic,Nashik</t>
+  </si>
+  <si>
+    <t>Data Analytics (DAN - CO5K, IF5K)</t>
+  </si>
+  <si>
+    <t>Harshali Prakash Bachhav</t>
+  </si>
+  <si>
+    <t>K. K. Wagh Polytechnic, Nashik</t>
+  </si>
+  <si>
+    <t>Gauri chikte</t>
+  </si>
+  <si>
+    <t>Kk wagh polytechnic nashik</t>
+  </si>
+  <si>
+    <t>Anuja Nivrutti Sangle</t>
+  </si>
+  <si>
+    <t>KK Wagh Polytechnic Nashik</t>
+  </si>
+  <si>
+    <t>Artificial intelligence and machine learning</t>
+  </si>
+  <si>
+    <t>A.C. Machines Performance (ACM - EE5K), Power Engineering (PER - ME5K)</t>
+  </si>
+  <si>
+    <t>Khan Noorfatima</t>
+  </si>
+  <si>
+    <t>Guru gobind singh polytechnic</t>
+  </si>
+  <si>
+    <t>CE (Civil Engineering)</t>
+  </si>
+  <si>
+    <t>Thoery of Structure (TOS - CE5K)</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Tanishka londhe</t>
+  </si>
+  <si>
+    <t>K.k.wagh polytechnic, Nashik</t>
+  </si>
+  <si>
+    <t>Survey Marathi madhe hava</t>
+  </si>
+  <si>
+    <t>Gauri Vijay Shinde</t>
+  </si>
+  <si>
+    <t>IF (Information Technology)</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Grishma Ravindra Chitte</t>
+  </si>
+  <si>
+    <t>Sandip polytechnic, sandip foundation, nashik.</t>
+  </si>
+  <si>
+    <t>Vruddhi Burad</t>
+  </si>
+  <si>
+    <t>K.K.Wagh Polytechnic</t>
+  </si>
+  <si>
+    <t>Sandip Foundation</t>
+  </si>
+  <si>
+    <t>Software Engineering (STE - CO5K), Data Analytics (DAN - CO5K, IF5K), Operating System (OSY - CO5K, IF5K)</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Kamini Vikas Chaudhari</t>
+  </si>
+  <si>
+    <t>RSM Polytechnic</t>
+  </si>
+  <si>
+    <t>Software Engineering and Testing (SET - IF5K)</t>
+  </si>
+  <si>
+    <t>Shakambhari govind sonawane</t>
+  </si>
+  <si>
+    <t>K k wagh polytechnic</t>
+  </si>
+  <si>
+    <t>Vaishnavi Vijay Gawande</t>
+  </si>
+  <si>
+    <t>Sandip foundation, Nashik</t>
+  </si>
+  <si>
+    <t>Data Analytics (DAN - CO5K, IF5K), Software Engineering and Testing (SET - IF5K)</t>
+  </si>
+  <si>
+    <t>Prachi Minnath Gurgude</t>
+  </si>
+  <si>
+    <t>Assignment Work should be less</t>
+  </si>
+  <si>
+    <t>Diya Patel</t>
+  </si>
+  <si>
+    <t>Dimpal Santosh Jadhav</t>
+  </si>
+  <si>
+    <t>K. K. Wagh Polytechnic</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +315,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B3F86"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -45,12 +372,216 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF5B3F86"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF442F65"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF5B3F86"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF442F65"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF442F65"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +861,1744 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" customWidth="1"/>
+    <col min="13" max="13" width="16.21875" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
+    <col min="17" max="17" width="15.77734375" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" customWidth="1"/>
+    <col min="20" max="20" width="17.21875" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" customWidth="1"/>
+    <col min="22" max="22" width="12.5546875" customWidth="1"/>
+    <col min="23" max="23" width="11" customWidth="1"/>
+    <col min="24" max="24" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>45973.351064814815</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>45973.387141203704</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>45973.414583333331</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>45973.423437500001</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>45973.442037037035</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="330.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>45973.456134259257</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>45973.475659722222</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>45973.501307870371</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>45973.50277777778</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>45973.514328703706</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>45973.527858796297</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>45973.532314814816</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>45973.575844907406</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>45973.596608796295</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>45973.602083333331</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X16" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="119.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>45973.748090277775</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="X17" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>45973.750057870369</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X18" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>45973.774062500001</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="X19" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>45973.829733796294</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X20" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>45973.845590277779</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="X21" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>45973.87704861111</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X22" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11">
+        <v>46003.42359953704</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U23" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="V23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="W23" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="X23" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="40" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>